--- a/va_facility_data_2025-02-20/Eureka VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eureka%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Eureka VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eureka%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R831c23e770914f4ea23af61e106a479d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3886cfe4a24145d9827221e84b95e952"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd3e18d24cfab4d8796875f6c56e879d8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf8d4453ba81d4778a8f713625454fec1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6d193de2cd344c58be33c026a1975a91"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R115e0f71fdbb47ebbc8f43ea7f939f8a"/>
   </x:sheets>
 </x:workbook>
 </file>
